--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Zp3-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Zp3-Chrna7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H2">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I2">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J2">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.6067206666666668</v>
+        <v>0.05437633333333333</v>
       </c>
       <c r="N2">
-        <v>1.820162</v>
+        <v>0.163129</v>
       </c>
       <c r="O2">
-        <v>0.2826254248320548</v>
+        <v>0.005255973740913027</v>
       </c>
       <c r="P2">
-        <v>0.2826254248320548</v>
+        <v>0.005255973740913026</v>
       </c>
       <c r="Q2">
-        <v>0.03449368782177778</v>
+        <v>0.004492500158222222</v>
       </c>
       <c r="R2">
-        <v>0.310443190396</v>
+        <v>0.040432501424</v>
       </c>
       <c r="S2">
-        <v>0.1379105922178737</v>
+        <v>0.003052099617241891</v>
       </c>
       <c r="T2">
-        <v>0.1379105922178737</v>
+        <v>0.00305209961724189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H3">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I3">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J3">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.54001</v>
+        <v>0.6067206666666666</v>
       </c>
       <c r="N3">
-        <v>4.62003</v>
+        <v>1.820162</v>
       </c>
       <c r="O3">
-        <v>0.7173745751679452</v>
+        <v>0.05864514388127025</v>
       </c>
       <c r="P3">
-        <v>0.7173745751679453</v>
+        <v>0.05864514388127025</v>
       </c>
       <c r="Q3">
-        <v>0.08755367519333332</v>
+        <v>0.0501264525191111</v>
       </c>
       <c r="R3">
-        <v>0.7879830767399999</v>
+        <v>0.451138072672</v>
       </c>
       <c r="S3">
-        <v>0.3500518488817713</v>
+        <v>0.03405474038042429</v>
       </c>
       <c r="T3">
-        <v>0.3500518488817713</v>
+        <v>0.03405474038042429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05965766666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H4">
-        <v>0.178973</v>
+        <v>0.247856</v>
       </c>
       <c r="I4">
-        <v>0.5120375589003551</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J4">
-        <v>0.5120375589003551</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6067206666666668</v>
+        <v>9.684528</v>
       </c>
       <c r="N4">
-        <v>1.820162</v>
+        <v>29.053584</v>
       </c>
       <c r="O4">
-        <v>0.2826254248320548</v>
+        <v>0.9360988823778167</v>
       </c>
       <c r="P4">
-        <v>0.2826254248320548</v>
+        <v>0.9360988823778167</v>
       </c>
       <c r="Q4">
-        <v>0.03619553929177778</v>
+        <v>0.800122790656</v>
       </c>
       <c r="R4">
-        <v>0.325759853626</v>
+        <v>7.201105115904</v>
       </c>
       <c r="S4">
-        <v>0.1447148326141811</v>
+        <v>0.5435847250084603</v>
       </c>
       <c r="T4">
-        <v>0.1447148326141811</v>
+        <v>0.5435847250084603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,40 +726,164 @@
         <v>0.178973</v>
       </c>
       <c r="I5">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J5">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05437633333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.163129</v>
+      </c>
+      <c r="O5">
+        <v>0.005255973740913027</v>
+      </c>
+      <c r="P5">
+        <v>0.005255973740913026</v>
+      </c>
+      <c r="Q5">
+        <v>0.003243965168555555</v>
+      </c>
+      <c r="R5">
+        <v>0.029195686517</v>
+      </c>
+      <c r="S5">
+        <v>0.002203874123671136</v>
+      </c>
+      <c r="T5">
+        <v>0.002203874123671135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05965766666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.178973</v>
+      </c>
+      <c r="I6">
+        <v>0.4193084349938734</v>
+      </c>
+      <c r="J6">
+        <v>0.4193084349938734</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.54001</v>
-      </c>
-      <c r="N5">
-        <v>4.62003</v>
-      </c>
-      <c r="O5">
-        <v>0.7173745751679452</v>
-      </c>
-      <c r="P5">
-        <v>0.7173745751679453</v>
-      </c>
-      <c r="Q5">
-        <v>0.09187340324333332</v>
-      </c>
-      <c r="R5">
-        <v>0.8268606291899999</v>
-      </c>
-      <c r="S5">
-        <v>0.367322726286174</v>
-      </c>
-      <c r="T5">
-        <v>0.367322726286174</v>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6067206666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.820162</v>
+      </c>
+      <c r="O6">
+        <v>0.05864514388127025</v>
+      </c>
+      <c r="P6">
+        <v>0.05864514388127025</v>
+      </c>
+      <c r="Q6">
+        <v>0.03619553929177777</v>
+      </c>
+      <c r="R6">
+        <v>0.325759853626</v>
+      </c>
+      <c r="S6">
+        <v>0.02459040350084596</v>
+      </c>
+      <c r="T6">
+        <v>0.02459040350084596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05965766666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.178973</v>
+      </c>
+      <c r="I7">
+        <v>0.4193084349938734</v>
+      </c>
+      <c r="J7">
+        <v>0.4193084349938734</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.684528</v>
+      </c>
+      <c r="N7">
+        <v>29.053584</v>
+      </c>
+      <c r="O7">
+        <v>0.9360988823778167</v>
+      </c>
+      <c r="P7">
+        <v>0.9360988823778167</v>
+      </c>
+      <c r="Q7">
+        <v>0.577756343248</v>
+      </c>
+      <c r="R7">
+        <v>5.199807089232</v>
+      </c>
+      <c r="S7">
+        <v>0.3925141573693563</v>
+      </c>
+      <c r="T7">
+        <v>0.3925141573693563</v>
       </c>
     </row>
   </sheetData>
